--- a/Melxl.DataAccess/ExcelData/Info.xlsx
+++ b/Melxl.DataAccess/ExcelData/Info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSbook\RiderProjects\Melxl\Melxl.Startup\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSbook\RiderProjects\Melxl\Melxl.DataAccess\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D8E6EF-1DA0-44E2-87E4-BF22D53E279B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691258CF-B379-4B36-8E19-D7C1C4877081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3732" yWindow="-17388" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -69,13 +69,7 @@
     <t>Gvendelin</t>
   </si>
   <si>
-    <t>Id = 23213; Name = "Profession"; Value = "Builder"</t>
-  </si>
-  <si>
-    <t>Id = 23213; Name = "Profession"; Value = "Advocate"</t>
-  </si>
-  <si>
-    <t>Parameters</t>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -411,155 +405,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
